--- a/biology/Zoologie/Errantia/Errantia.xlsx
+++ b/biology/Zoologie/Errantia/Errantia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polychètes errants
 Les Errantia (communément appelés Polychètes errants) sont l'une des deux sous-classes de vers de la classe des Polychètes. L'autre sous-classe est constituée de vers sessiles, les Sedentaria. 
@@ -512,10 +524,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des vers mobiles, pourvus d'appendices de locomotion (parapodes) et d'une tête différenciée (le plus souvent munie d'yeux et de dents)[1]. 
-Ces vers sont tous aquatiques, et la grande majorité marins (et éventuellement estuariens). On en trouve dans tous les bassins océaniques du globe, et à toutes les profondeurs (de la surface à plus de 7 000 mètres de profondeur)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des vers mobiles, pourvus d'appendices de locomotion (parapodes) et d'une tête différenciée (le plus souvent munie d'yeux et de dents). 
+Ces vers sont tous aquatiques, et la grande majorité marins (et éventuellement estuariens). On en trouve dans tous les bassins océaniques du globe, et à toutes les profondeurs (de la surface à plus de 7 000 mètres de profondeur).
 La reproduction des polychètes est bisexuée (à sexes séparés, mais sans dimorphisme sexuel), hormis pour quelques exceptions (par exemple chez Platynereis dumerilii ou Hesione sicula). Lors de la reproduction le corps s'allonge puis éclate (phénomène d'« épitoquie »), laissant s'échapper les gamètes dans le milieu.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Liste des ordres et familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (20 octobre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (20 octobre 2014) :
 ordre Amphinomida
 famille Amphinomidae Lamarck, 1818
 famille Euphrosinidae Williams, 1852
